--- a/data/trans_dic/P79$hipoteca_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P79$hipoteca_2023-Edad-trans_dic.xlsx
@@ -596,11 +596,11 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02678914855624574</v>
+        <v>0.02516750404355769</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.01254213810758037</v>
+        <v>0.01534363435132282</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
         <v>0.01284930053913062</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.008409414863658368</v>
+        <v>0.008409414863658366</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.01059420514852629</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.004632505832060162</v>
+        <v>0.004956943363613922</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.002720428243551292</v>
+        <v>0.002758193142123627</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.004804286696674312</v>
+        <v>0.005160729766059469</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02918473174953736</v>
+        <v>0.02974206807371698</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02065311537716533</v>
+        <v>0.02121743899251646</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01961848973091523</v>
+        <v>0.01938357814268665</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.007636102645308278</v>
+        <v>0.007527826746650884</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.007860215330984809</v>
+        <v>0.008070166313845226</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.009083902032568456</v>
+        <v>0.00902042144766551</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03029504250718905</v>
+        <v>0.03020800189992577</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0268517737071877</v>
+        <v>0.02644610336747013</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0232242376659802</v>
+        <v>0.02419220650508851</v>
       </c>
     </row>
     <row r="13">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.006520551050713412</v>
+        <v>0.006606127541318045</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.003562381611618436</v>
+        <v>0.003802856454593454</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0063818215969971</v>
+        <v>0.006289010759808141</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02469183360854978</v>
+        <v>0.02648866779677483</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01487369030977178</v>
+        <v>0.01537560233914928</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01723928336019503</v>
+        <v>0.0170804694823655</v>
       </c>
     </row>
     <row r="16">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.004184104587895567</v>
+        <v>0.003592211486939973</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.004764768141332763</v>
+        <v>0.00460847280698857</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.005826870110731267</v>
+        <v>0.005847381586411341</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02239803867816121</v>
+        <v>0.02398813724523668</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01946854692116409</v>
+        <v>0.01886745762313514</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0174520427920687</v>
+        <v>0.01693122601602192</v>
       </c>
     </row>
     <row r="19">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.001740438489983135</v>
+        <v>0.001773522221368682</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.0008475922870493621</v>
+        <v>0.0008823685055328785</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.01594474028416311</v>
+        <v>0.01828868002695335</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.007198370741231316</v>
+        <v>0.007255827003989938</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.008724097600806677</v>
+        <v>0.008901657142800931</v>
       </c>
     </row>
     <row r="22">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.007087312751458907</v>
+        <v>0.006724891717042139</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.004962320552897461</v>
+        <v>0.005084450588077853</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.006723313001067988</v>
+        <v>0.006680283695945554</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01425767175296438</v>
+        <v>0.01411315831301202</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.009964351232463446</v>
+        <v>0.009852804371628722</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.01086969514719655</v>
+        <v>0.01105191174853041</v>
       </c>
     </row>
     <row r="28">
@@ -1133,11 +1133,11 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10127</v>
+        <v>9514</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>8972</v>
+        <v>10976</v>
       </c>
     </row>
     <row r="8">
@@ -1186,13 +1186,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2174</v>
+        <v>2326</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1318</v>
+        <v>1336</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4581</v>
+        <v>4921</v>
       </c>
     </row>
     <row r="11">
@@ -1203,13 +1203,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>13695</v>
+        <v>13957</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>10004</v>
+        <v>10277</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>18709</v>
+        <v>18485</v>
       </c>
     </row>
     <row r="12">
@@ -1258,13 +1258,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4579</v>
+        <v>4514</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4756</v>
+        <v>4883</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>10943</v>
+        <v>10867</v>
       </c>
     </row>
     <row r="15">
@@ -1275,13 +1275,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>18168</v>
+        <v>18115</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>16246</v>
+        <v>16000</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>27978</v>
+        <v>29144</v>
       </c>
     </row>
     <row r="16">
@@ -1330,13 +1330,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4450</v>
+        <v>4508</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2555</v>
+        <v>2727</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>8932</v>
+        <v>8802</v>
       </c>
     </row>
     <row r="19">
@@ -1347,13 +1347,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>16851</v>
+        <v>18077</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>10666</v>
+        <v>11026</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>24127</v>
+        <v>23905</v>
       </c>
     </row>
     <row r="20">
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2472</v>
+        <v>2122</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2795</v>
+        <v>2703</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>6860</v>
+        <v>6884</v>
       </c>
     </row>
     <row r="23">
@@ -1419,13 +1419,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>13231</v>
+        <v>14170</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>11419</v>
+        <v>11067</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>20546</v>
+        <v>19933</v>
       </c>
     </row>
     <row r="24">
@@ -1474,13 +1474,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>698</v>
+        <v>726</v>
       </c>
     </row>
     <row r="27">
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6323</v>
+        <v>7253</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3069</v>
+        <v>3094</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>7179</v>
+        <v>7326</v>
       </c>
     </row>
     <row r="28">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>24244</v>
+        <v>23005</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>17860</v>
+        <v>18299</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>47197</v>
+        <v>46895</v>
       </c>
     </row>
     <row r="35">
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>48773</v>
+        <v>48279</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>35862</v>
+        <v>35461</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>76304</v>
+        <v>77583</v>
       </c>
     </row>
     <row r="36">
